--- a/LinearRegression/Sales.Prediction.xlsx
+++ b/LinearRegression/Sales.Prediction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="4060" yWindow="1860" windowWidth="33600" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>samsung 三星 galaxy tab3 t211 1g 8g wifi+3g 可 通话 平板 电脑 gps 300万像素 白色</t>
   </si>
@@ -248,16 +248,25 @@
     <t>SellerReputation</t>
   </si>
   <si>
-    <t>OneMonthConversionRate</t>
-  </si>
-  <si>
-    <t>OneWeekConversionRate</t>
-  </si>
-  <si>
     <t>OneMonthTrafficInUV</t>
   </si>
   <si>
     <t>OneWeekTrafficInUV</t>
+  </si>
+  <si>
+    <t>IsDeal</t>
+  </si>
+  <si>
+    <t>IsFreeshipping</t>
+  </si>
+  <si>
+    <t>TargetValue</t>
+  </si>
+  <si>
+    <t>OneMonthConversionRateInUV</t>
+  </si>
+  <si>
+    <t>OneWeekConversionRateInUV</t>
   </si>
 </sst>
 </file>
@@ -572,23 +581,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="8" width="23" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -602,22 +617,28 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
       </c>
       <c r="M1" t="s">
         <v>69</v>
@@ -625,8 +646,11 @@
       <c r="N1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>22785</v>
       </c>
@@ -639,8 +663,17 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>19436</v>
       </c>
@@ -653,8 +686,17 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3590</v>
       </c>
@@ -667,8 +709,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3787</v>
       </c>
@@ -681,8 +726,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11671</v>
       </c>
@@ -695,8 +743,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23188</v>
       </c>
@@ -709,8 +760,11 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25150</v>
       </c>
@@ -723,8 +777,11 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14707</v>
       </c>
@@ -737,8 +794,11 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>28657</v>
       </c>
@@ -751,8 +811,11 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6275</v>
       </c>
@@ -765,8 +828,11 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18663</v>
       </c>
@@ -779,8 +845,11 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15229</v>
       </c>
@@ -793,8 +862,11 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1290</v>
       </c>
@@ -807,8 +879,11 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22014</v>
       </c>
@@ -821,8 +896,11 @@
       <c r="D15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13200</v>
       </c>
@@ -835,8 +913,11 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3440</v>
       </c>
@@ -849,8 +930,11 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>26597</v>
       </c>
@@ -863,8 +947,11 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4955</v>
       </c>
@@ -877,8 +964,11 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6083</v>
       </c>
@@ -891,8 +981,11 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9082</v>
       </c>
@@ -905,8 +998,11 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17532</v>
       </c>
@@ -919,8 +1015,11 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4826</v>
       </c>
@@ -933,8 +1032,11 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3910</v>
       </c>
@@ -947,8 +1049,11 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24450</v>
       </c>
@@ -961,8 +1066,11 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13428</v>
       </c>
@@ -975,8 +1083,11 @@
       <c r="D26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1140</v>
       </c>
@@ -989,8 +1100,11 @@
       <c r="D27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22403</v>
       </c>
@@ -1003,8 +1117,11 @@
       <c r="D28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5945</v>
       </c>
@@ -1017,8 +1134,11 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>19020</v>
       </c>
@@ -1031,8 +1151,11 @@
       <c r="D30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2068</v>
       </c>
@@ -1045,8 +1168,11 @@
       <c r="D31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>21222</v>
       </c>
@@ -1059,8 +1185,11 @@
       <c r="D32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10718</v>
       </c>
@@ -1073,8 +1202,11 @@
       <c r="D33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15577</v>
       </c>
@@ -1087,8 +1219,11 @@
       <c r="D34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2269</v>
       </c>
@@ -1101,8 +1236,11 @@
       <c r="D35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>18569</v>
       </c>
@@ -1115,8 +1253,11 @@
       <c r="D36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2998</v>
       </c>
@@ -1129,8 +1270,11 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21803</v>
       </c>
@@ -1143,8 +1287,11 @@
       <c r="D38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>19303</v>
       </c>
@@ -1157,8 +1304,11 @@
       <c r="D39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4690</v>
       </c>
@@ -1171,8 +1321,11 @@
       <c r="D40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>19971</v>
       </c>
@@ -1185,8 +1338,11 @@
       <c r="D41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>26946</v>
       </c>
@@ -1199,8 +1355,11 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>25426</v>
       </c>
@@ -1213,8 +1372,11 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>13999</v>
       </c>
@@ -1227,8 +1389,11 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9150</v>
       </c>
@@ -1241,8 +1406,11 @@
       <c r="D45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1227</v>
       </c>
@@ -1255,8 +1423,11 @@
       <c r="D46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9904</v>
       </c>
@@ -1269,8 +1440,11 @@
       <c r="D47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>22857</v>
       </c>
@@ -1283,8 +1457,11 @@
       <c r="D48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12522</v>
       </c>
@@ -1297,8 +1474,11 @@
       <c r="D49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7519</v>
       </c>
@@ -1311,8 +1491,11 @@
       <c r="D50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1324</v>
       </c>
@@ -1324,6 +1507,9 @@
       </c>
       <c r="D51" t="s">
         <v>24</v>
+      </c>
+      <c r="E51">
+        <v>0.23499999999999999</v>
       </c>
     </row>
   </sheetData>
